--- a/data/Hualaihué.xlsx
+++ b/data/Hualaihué.xlsx
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Moluscos ( Solicitud N°200101088)</t>
+          <t>Camping El Manzano</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Luis Orlando Lizama Agular</t>
+          <t>Sindicato de Trabajadores Indep., Pesc. Art., Buzos Mariscadores y Ramos Similares, Caleta El Mazano</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Camping El Manzano</t>
+          <t>Centro de Cultivo de Moluscos ( Solicitud N°200101088)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Indep., Pesc. Art., Buzos Mariscadores y Ramos Similares, Caleta El Mazano</t>
+          <t>Luis Orlando Lizama Agular</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Mitílidos Sector Pichicolo3 Comuna de Hualaihue Provincia de Palena X Región ( Solicitud N°96101145)</t>
+          <t>Pichicolo 2 ( Solicitud N°96101253)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9131,7 +9131,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Pichicolo 2 ( Solicitud N°96101253)</t>
+          <t>Centro de Engorda de Mitílidos Sector Pichicolo3 Comuna de Hualaihue Provincia de Palena X Región ( Solicitud N°96101145)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9179,7 +9179,7 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>35</v>
+        <v>1000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Centro Piscícola Quildaco Bajo</t>
+          <t>Centro Piscícola Caleta Puelche</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Ramón Roberto Cárdenas Bórquez</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Centro Piscícola Caleta Puelche</t>
+          <t>Centro Piscícola Quildaco Bajo</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,7 +10279,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Ramón Roberto Cárdenas Bórquez</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">

--- a/data/Hualaihué.xlsx
+++ b/data/Hualaihué.xlsx
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Camping El Manzano</t>
+          <t>Centro de Cultivo de Moluscos ( Solicitud N°200101088)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Indep., Pesc. Art., Buzos Mariscadores y Ramos Similares, Caleta El Mazano</t>
+          <t>Luis Orlando Lizama Agular</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Moluscos ( Solicitud N°200101088)</t>
+          <t>Camping El Manzano</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Luis Orlando Lizama Agular</t>
+          <t>Sindicato de Trabajadores Indep., Pesc. Art., Buzos Mariscadores y Ramos Similares, Caleta El Mazano</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Pichicolo 2 ( Solicitud N°96101253)</t>
+          <t>Centro de Engorda de Mitílidos Sector Pichicolo3 Comuna de Hualaihue Provincia de Palena X Región ( Solicitud N°96101145)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9131,7 +9131,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>35</v>
+        <v>1000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Mitílidos Sector Pichicolo3 Comuna de Hualaihue Provincia de Palena X Región ( Solicitud N°96101145)</t>
+          <t>Pichicolo 2 ( Solicitud N°96101253)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9179,7 +9179,7 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Centro Piscícola Caleta Puelche</t>
+          <t>Centro Piscícola Quildaco Bajo</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Ramón Roberto Cárdenas Bórquez</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Centro Piscícola Quildaco Bajo</t>
+          <t>Centro Piscícola Caleta Puelche</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,7 +10279,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Ramón Roberto Cárdenas Bórquez</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">

--- a/data/Hualaihué.xlsx
+++ b/data/Hualaihué.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Hualaihué.xlsx
+++ b/data/Hualaihué.xlsx
@@ -2551,7 +2551,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Ventisqueros S.A.</t>
+          <t>GLACIARES DOS S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Camping El Manzano</t>
+          <t>Centro de Cultivo de Moluscos ( Solicitud N°200101088)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Indep., Pesc. Art., Buzos Mariscadores y Ramos Similares, Caleta El Mazano</t>
+          <t>Luis Orlando Lizama Agular</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Moluscos ( Solicitud N°200101088)</t>
+          <t>Camping El Manzano</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Luis Orlando Lizama Agular</t>
+          <t>Sindicato de Trabajadores Indep., Pesc. Art., Buzos Mariscadores y Ramos Similares, Caleta El Mazano</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Pichicolo 2 ( Solicitud N°96101253)</t>
+          <t>Centro de Engorda de Mitílidos Sector Pichicolo3 Comuna de Hualaihue Provincia de Palena X Región ( Solicitud N°96101145)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9131,7 +9131,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>35</v>
+        <v>1000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Mitílidos Sector Pichicolo3 Comuna de Hualaihue Provincia de Palena X Región ( Solicitud N°96101145)</t>
+          <t>Pichicolo 2 ( Solicitud N°96101253)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9179,7 +9179,7 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Centro Piscícola Caleta Puelche</t>
+          <t>Centro Piscícola Quildaco Bajo</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Ramón Roberto Cárdenas Bórquez</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Centro Piscícola Quildaco Bajo</t>
+          <t>Centro Piscícola Caleta Puelche</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,7 +10279,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Ramón Roberto Cárdenas Bórquez</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">

--- a/data/Hualaihué.xlsx
+++ b/data/Hualaihué.xlsx
@@ -8167,7 +8167,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Frío Salmón SpA</t>
+          <t>Caleta Bay Mar SpA</t>
         </is>
       </c>
       <c r="F163" t="n">

--- a/data/Hualaihué.xlsx
+++ b/data/Hualaihué.xlsx
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Moluscos ( Solicitud N°200101088)</t>
+          <t>Camping El Manzano</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Luis Orlando Lizama Agular</t>
+          <t>Sindicato de Trabajadores Indep., Pesc. Art., Buzos Mariscadores y Ramos Similares, Caleta El Mazano</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Camping El Manzano</t>
+          <t>Centro de Cultivo de Moluscos ( Solicitud N°200101088)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Indep., Pesc. Art., Buzos Mariscadores y Ramos Similares, Caleta El Mazano</t>
+          <t>Luis Orlando Lizama Agular</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Mitílidos Sector Pichicolo3 Comuna de Hualaihue Provincia de Palena X Región ( Solicitud N°96101145)</t>
+          <t>Pichicolo 2 ( Solicitud N°96101253)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9131,7 +9131,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Pichicolo 2 ( Solicitud N°96101253)</t>
+          <t>Centro de Engorda de Mitílidos Sector Pichicolo3 Comuna de Hualaihue Provincia de Palena X Región ( Solicitud N°96101145)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9179,7 +9179,7 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>35</v>
+        <v>1000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Centro Piscícola Quildaco Bajo</t>
+          <t>Centro Piscícola Caleta Puelche</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Ramón Roberto Cárdenas Bórquez</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Centro Piscícola Caleta Puelche</t>
+          <t>Centro Piscícola Quildaco Bajo</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,7 +10279,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Ramón Roberto Cárdenas Bórquez</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10375,7 +10375,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F209" t="n">

--- a/data/Hualaihué.xlsx
+++ b/data/Hualaihué.xlsx
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Nueva Cermaq Chile S.A.</t>
+          <t>NUEVA CERMAQ CHILE S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Nueva Cermaq Chile S.A.</t>
+          <t>NUEVA CERMAQ CHILE S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">

--- a/data/Hualaihué.xlsx
+++ b/data/Hualaihué.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Hualaihué.xlsx
+++ b/data/Hualaihué.xlsx
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Marcela Waleska Velasquez Strausmann</t>
+          <t>OS-SAL S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Moluscos ( Solicitud N°200101088)</t>
+          <t>Camping El Manzano</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Luis Orlando Lizama Agular</t>
+          <t>Sindicato de Trabajadores Indep., Pesc. Art., Buzos Mariscadores y Ramos Similares, Caleta El Mazano</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Camping El Manzano</t>
+          <t>Centro de Cultivo de Moluscos ( Solicitud N°200101088)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Indep., Pesc. Art., Buzos Mariscadores y Ramos Similares, Caleta El Mazano</t>
+          <t>Luis Orlando Lizama Agular</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Mitílidos Sector Pichicolo3 Comuna de Hualaihue Provincia de Palena X Región ( Solicitud N°96101145)</t>
+          <t>Pichicolo 2 ( Solicitud N°96101253)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9131,7 +9131,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Pichicolo 2 ( Solicitud N°96101253)</t>
+          <t>Centro de Engorda de Mitílidos Sector Pichicolo3 Comuna de Hualaihue Provincia de Palena X Región ( Solicitud N°96101145)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9179,7 +9179,7 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>35</v>
+        <v>1000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Centro Piscícola Quildaco Bajo</t>
+          <t>Centro Piscícola Caleta Puelche</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Ramón Roberto Cárdenas Bórquez</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Centro Piscícola Caleta Puelche</t>
+          <t>Centro Piscícola Quildaco Bajo</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,7 +10279,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Ramón Roberto Cárdenas Bórquez</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">

--- a/data/Hualaihué.xlsx
+++ b/data/Hualaihué.xlsx
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Agrícola, Ganadera y Forestal Alerce 3000 SpA.</t>
+          <t>BOPAR SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
